--- a/response.xlsx
+++ b/response.xlsx
@@ -8,37 +8,52 @@
   </bookViews>
   <sheets>
     <sheet name="Tenencia" sheetId="1" r:id="rId1"/>
-    <sheet name="Variacion - Retorno" sheetId="2" r:id="rId5"/>
+    <sheet name="Retorno" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>AL30</t>
+  </si>
+  <si>
+    <t>GD30</t>
+  </si>
+  <si>
+    <t>USDC</t>
+  </si>
+  <si>
+    <t>T4X4</t>
+  </si>
+  <si>
+    <t>TX26</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>QUINQUELA A_489</t>
+  </si>
+  <si>
+    <t>QUINQUELA P_554</t>
+  </si>
+  <si>
     <t>S26L4</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>AL30</t>
-  </si>
-  <si>
-    <t>TX26</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>QUINQUELA A_489</t>
-  </si>
-  <si>
-    <t>QUINQUELA P_554</t>
+    <t>T2X4</t>
+  </si>
+  <si>
+    <t>X20F4</t>
   </si>
   <si>
     <t>S14O4</t>
@@ -56,469 +71,346 @@
     <t>S31E5</t>
   </si>
   <si>
+    <t>TASA FIJA</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>BONOS HARD DOLLAR</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>CER</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
     <t>MONEY MARKET</t>
   </si>
   <si>
-    <t>TASA FIJA</t>
+    <t>SIN CATEGORIA</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>125848320.00</t>
+  </si>
+  <si>
+    <t>431639573.92</t>
+  </si>
+  <si>
+    <t>433297688.00</t>
+  </si>
+  <si>
+    <t>4307076.17</t>
+  </si>
+  <si>
+    <t>344109555.00</t>
+  </si>
+  <si>
+    <t>142450112.25</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>197783551.62</t>
+  </si>
+  <si>
+    <t>5177964.65</t>
+  </si>
+  <si>
+    <t>1522409.61</t>
+  </si>
+  <si>
+    <t>850991461.90</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>4439611.02</t>
+  </si>
+  <si>
+    <t>1311699.95</t>
+  </si>
+  <si>
+    <t>1032406542.13</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>4414424.76</t>
+  </si>
+  <si>
+    <t>1271480.30</t>
+  </si>
+  <si>
+    <t>1492871368.38</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>8852.78</t>
+  </si>
+  <si>
+    <t>2257633108.59</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>1486554500.00</t>
+  </si>
+  <si>
+    <t>512150440.00</t>
+  </si>
+  <si>
+    <t>9698.28</t>
+  </si>
+  <si>
+    <t>649197977.65</t>
+  </si>
+  <si>
+    <t>81819008.00</t>
+  </si>
+  <si>
+    <t>226000000.00</t>
+  </si>
+  <si>
+    <t>2484602100.00</t>
+  </si>
+  <si>
+    <t>1488991207.50</t>
+  </si>
+  <si>
+    <t>2459544349.09</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>1599468900.00</t>
+  </si>
+  <si>
+    <t>501668680.00</t>
+  </si>
+  <si>
+    <t>10890.38</t>
+  </si>
+  <si>
+    <t>471469904.14</t>
+  </si>
+  <si>
+    <t>79105122.60</t>
+  </si>
+  <si>
+    <t>85664501.38</t>
+  </si>
+  <si>
+    <t>227800000.00</t>
+  </si>
+  <si>
+    <t>2384586337.50</t>
+  </si>
+  <si>
+    <t>1482140125.00</t>
+  </si>
+  <si>
+    <t>2398890685.00</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>408633000.00</t>
+  </si>
+  <si>
+    <t>515353200.00</t>
+  </si>
+  <si>
+    <t>36460092.43</t>
+  </si>
+  <si>
+    <t>485215073.05</t>
+  </si>
+  <si>
+    <t>91976867.80</t>
+  </si>
+  <si>
+    <t>88241800.13</t>
+  </si>
+  <si>
+    <t>584867660.00</t>
+  </si>
+  <si>
+    <t>3849637723.33</t>
+  </si>
+  <si>
+    <t>2444628289.50</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>469821214.19</t>
+  </si>
+  <si>
+    <t>252945250.00</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>614369834.00</t>
+  </si>
+  <si>
+    <t>2586415825.98</t>
+  </si>
+  <si>
+    <t>2599389408.40</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>272525760.00</t>
+  </si>
+  <si>
+    <t>2727454701.00</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>767191875.41</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ARS</t>
-  </si>
-  <si>
-    <t>BONOS HARD DOLLAR</t>
-  </si>
-  <si>
-    <t>CER</t>
-  </si>
-  <si>
-    <t>MEP</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>9052.71</t>
-  </si>
-  <si>
-    <t>9447585947.38</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>984681900.00</t>
-  </si>
-  <si>
-    <t>9419.39</t>
-  </si>
-  <si>
-    <t>9328295156.36</t>
-  </si>
-  <si>
-    <t>220800000.00</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>1372501850.00</t>
-  </si>
-  <si>
-    <t>497883600.00</t>
-  </si>
-  <si>
-    <t>9103.08</t>
-  </si>
-  <si>
-    <t>1250469795.08</t>
-  </si>
-  <si>
-    <t>223000000.00</t>
-  </si>
-  <si>
-    <t>2421434250.00</t>
-  </si>
-  <si>
-    <t>1457720425.00</t>
-  </si>
-  <si>
-    <t>2398890685.00</t>
-  </si>
-  <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
-    <t>9392.83</t>
-  </si>
-  <si>
-    <t>196992001.75</t>
-  </si>
-  <si>
-    <t>1486888400.00</t>
-  </si>
-  <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>82809018.00</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>1494294600.00</t>
-  </si>
-  <si>
-    <t>515353200.00</t>
-  </si>
-  <si>
-    <t>10558.73</t>
-  </si>
-  <si>
-    <t>575143570.52</t>
-  </si>
-  <si>
-    <t>222400000.00</t>
-  </si>
-  <si>
-    <t>2410906275.00</t>
-  </si>
-  <si>
-    <t>1463825350.00</t>
-  </si>
-  <si>
-    <t>2406918101.30</t>
-  </si>
-  <si>
-    <t>2024-05-31</t>
-  </si>
-  <si>
-    <t>84232668.74</t>
-  </si>
-  <si>
-    <t>1563955500.00</t>
-  </si>
-  <si>
-    <t>507928620.00</t>
-  </si>
-  <si>
-    <t>10564.21</t>
-  </si>
-  <si>
-    <t>463120082.79</t>
-  </si>
-  <si>
-    <t>117396352.04</t>
-  </si>
-  <si>
-    <t>226620000.00</t>
-  </si>
-  <si>
-    <t>2387323611.00</t>
-  </si>
-  <si>
-    <t>1480240815.00</t>
-  </si>
-  <si>
-    <t>2395530371.20</t>
-  </si>
-  <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>84445398.16</t>
-  </si>
-  <si>
-    <t>1503400600.00</t>
-  </si>
-  <si>
-    <t>499339400.00</t>
-  </si>
-  <si>
-    <t>11234.77</t>
-  </si>
-  <si>
-    <t>463766053.33</t>
-  </si>
-  <si>
-    <t>118266412.49</t>
-  </si>
-  <si>
-    <t>223900000.00</t>
-  </si>
-  <si>
-    <t>2269831410.00</t>
-  </si>
-  <si>
-    <t>1440626635.00</t>
-  </si>
-  <si>
-    <t>2291547327.50</t>
-  </si>
-  <si>
-    <t>2024-06-14</t>
-  </si>
-  <si>
-    <t>85664501.38</t>
-  </si>
-  <si>
-    <t>1599468900.00</t>
-  </si>
-  <si>
-    <t>501668680.00</t>
-  </si>
-  <si>
-    <t>10890.38</t>
-  </si>
-  <si>
-    <t>471469904.14</t>
-  </si>
-  <si>
-    <t>79105122.60</t>
-  </si>
-  <si>
-    <t>227800000.00</t>
-  </si>
-  <si>
-    <t>2384586337.50</t>
-  </si>
-  <si>
-    <t>1482140125.00</t>
-  </si>
-  <si>
-    <t>2024-06-21</t>
-  </si>
-  <si>
-    <t>86122687.82</t>
-  </si>
-  <si>
-    <t>1632022850.00</t>
-  </si>
-  <si>
-    <t>505599340.00</t>
-  </si>
-  <si>
-    <t>11134.86</t>
-  </si>
-  <si>
-    <t>471496477.10</t>
-  </si>
-  <si>
-    <t>79495388.22</t>
-  </si>
-  <si>
-    <t>227780000.00</t>
-  </si>
-  <si>
-    <t>2381427945.00</t>
-  </si>
-  <si>
-    <t>1482818450.00</t>
-  </si>
-  <si>
-    <t>2389556480.00</t>
-  </si>
-  <si>
-    <t>2024-06-28</t>
-  </si>
-  <si>
-    <t>86890968.31</t>
-  </si>
-  <si>
-    <t>473174100.00</t>
-  </si>
-  <si>
-    <t>503415640.00</t>
-  </si>
-  <si>
-    <t>11799.24</t>
-  </si>
-  <si>
-    <t>474308440.57</t>
-  </si>
-  <si>
-    <t>4740794796.62</t>
-  </si>
-  <si>
-    <t>565199544.00</t>
-  </si>
-  <si>
-    <t>3752083551.00</t>
-  </si>
-  <si>
-    <t>2352219660.00</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>4.050500</t>
-  </si>
-  <si>
-    <t>-1.262659</t>
-  </si>
-  <si>
-    <t>39.385303</t>
-  </si>
-  <si>
-    <t>-3.358073</t>
-  </si>
-  <si>
-    <t>-86.594873</t>
-  </si>
-  <si>
-    <t>0.996377</t>
-  </si>
-  <si>
-    <t>3.182989</t>
-  </si>
-  <si>
-    <t>-84.246561</t>
-  </si>
-  <si>
-    <t>2.000931</t>
-  </si>
-  <si>
-    <t>12.412659</t>
-  </si>
-  <si>
-    <t>191.962905</t>
-  </si>
-  <si>
-    <t>-1.551095</t>
-  </si>
-  <si>
-    <t>1.719198</t>
-  </si>
-  <si>
-    <t>-100.000000</t>
-  </si>
-  <si>
-    <t>4.661792</t>
-  </si>
-  <si>
-    <t>-1.440678</t>
-  </si>
-  <si>
-    <t>0.051900</t>
-  </si>
-  <si>
-    <t>-79.588340</t>
-  </si>
-  <si>
-    <t>1.897482</t>
-  </si>
-  <si>
-    <t>-0.978166</t>
-  </si>
-  <si>
-    <t>1.121409</t>
-  </si>
-  <si>
-    <t>-0.473125</t>
-  </si>
-  <si>
-    <t>0.252550</t>
-  </si>
-  <si>
-    <t>-3.871907</t>
-  </si>
-  <si>
-    <t>-1.691029</t>
-  </si>
-  <si>
-    <t>6.347469</t>
-  </si>
-  <si>
-    <t>0.139482</t>
-  </si>
-  <si>
-    <t>0.741131</t>
-  </si>
-  <si>
-    <t>-1.200247</t>
-  </si>
-  <si>
-    <t>-4.921503</t>
-  </si>
-  <si>
-    <t>-2.676198</t>
-  </si>
-  <si>
-    <t>-4.340711</t>
-  </si>
-  <si>
-    <t>1.443659</t>
-  </si>
-  <si>
-    <t>6.390067</t>
-  </si>
-  <si>
-    <t>0.466472</t>
-  </si>
-  <si>
-    <t>-3.065394</t>
-  </si>
-  <si>
-    <t>1.661150</t>
-  </si>
-  <si>
-    <t>-33.112774</t>
-  </si>
-  <si>
-    <t>1.741849</t>
-  </si>
-  <si>
-    <t>5.055659</t>
-  </si>
-  <si>
-    <t>2.881627</t>
-  </si>
-  <si>
-    <t>4.684318</t>
-  </si>
-  <si>
-    <t>0.534862</t>
-  </si>
-  <si>
-    <t>2.035297</t>
-  </si>
-  <si>
-    <t>0.783517</t>
-  </si>
-  <si>
-    <t>2.244917</t>
-  </si>
-  <si>
-    <t>0.005636</t>
-  </si>
-  <si>
-    <t>0.493351</t>
-  </si>
-  <si>
-    <t>-0.008780</t>
-  </si>
-  <si>
-    <t>-0.132450</t>
-  </si>
-  <si>
-    <t>0.045767</t>
-  </si>
-  <si>
-    <t>-0.389105</t>
-  </si>
-  <si>
-    <t>0.892077</t>
-  </si>
-  <si>
-    <t>-71.006895</t>
-  </si>
-  <si>
-    <t>-0.431903</t>
-  </si>
-  <si>
-    <t>5.966667</t>
-  </si>
-  <si>
-    <t>0.596391</t>
-  </si>
-  <si>
-    <t>5863.609843</t>
-  </si>
-  <si>
-    <t>-61.883429</t>
-  </si>
-  <si>
-    <t>-1.562500</t>
+    <t>312.53</t>
+  </si>
+  <si>
+    <t>-14.26</t>
+  </si>
+  <si>
+    <t>-13.84</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>-3.07</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>-99.30</t>
+  </si>
+  <si>
+    <t>79.68</t>
+  </si>
+  <si>
+    <t>9.55</t>
+  </si>
+  <si>
+    <t>8.56</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>-2.05</t>
+  </si>
+  <si>
+    <t>12.29</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>-4.03</t>
+  </si>
+  <si>
+    <t>-0.46</t>
+  </si>
+  <si>
+    <t>-2.47</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>334691.74</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>20.95</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>-2.44</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>7.74</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>1.22</t>
   </si>
 </sst>
 </file>
@@ -887,29 +779,32 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="4" t="s">
@@ -951,426 +846,648 @@
       <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
+      <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
+      <c r="P8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" t="s">
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
         <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="O9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s">
+      <c r="P9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
         <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="K10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" t="s">
+      <c r="Q10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
+      <c r="R10" t="s">
         <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="Q11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="R11" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
+  <mergeCells count="8">
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="B1:B1"/>
-    <mergeCell ref="C1:C1"/>
-    <mergeCell ref="D1:D1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E1"/>
-    <mergeCell ref="F1:F1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
 </worksheet>
 </file>
@@ -1388,28 +1505,30 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" s="4" customFormat="true">
@@ -1417,461 +1536,539 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s">
-        <v>159</v>
+        <v>127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>167</v>
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B1:B1"/>
+    <mergeCell ref="C1:C1"/>
     <mergeCell ref="D1:D1"/>
     <mergeCell ref="E1:E1"/>
     <mergeCell ref="F1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B1:B1"/>
-    <mergeCell ref="C1:C1"/>
+    <mergeCell ref="I1:I1"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
 </worksheet>
 </file>